--- a/MySite Documents/checklist pva .xlsx
+++ b/MySite Documents/checklist pva .xlsx
@@ -5,16 +5,14 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\2013-2014\excel\Klas 2\Project 1 Barroc-IT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alienware\Documents\GitHub\BarrocIT\MySite Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="72" windowWidth="22980" windowHeight="9528"/>
+    <workbookView xWindow="0" yWindow="75" windowWidth="22980" windowHeight="9525"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
-    <sheet name="Blad2" sheetId="2" r:id="rId2"/>
-    <sheet name="Blad3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
@@ -504,7 +502,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -520,9 +518,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Kantoor">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -560,7 +558,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Kantoor">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -632,7 +630,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Kantoor">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -808,42 +806,42 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:C112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A98" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A118" sqref="A118"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="61.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="3.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="61.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="3.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" ht="36.6" x14ac:dyDescent="0.7">
+    <row r="2" spans="1:3" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="11" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B5" s="17"/>
     </row>
-    <row r="6" spans="1:3" ht="45.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B6" s="3"/>
     </row>
-    <row r="7" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
       <c r="B7" s="3"/>
     </row>
-    <row r="8" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>1</v>
       </c>
       <c r="B8" s="18"/>
     </row>
-    <row r="9" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>2</v>
       </c>
@@ -852,7 +850,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>3</v>
       </c>
@@ -861,11 +859,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="12"/>
     </row>
-    <row r="12" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>4</v>
       </c>
@@ -874,7 +872,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>5</v>
       </c>
@@ -883,7 +881,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>6</v>
       </c>
@@ -892,7 +890,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>7</v>
       </c>
@@ -901,7 +899,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>8</v>
       </c>
@@ -910,17 +908,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" s="14"/>
     </row>
-    <row r="18" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>9</v>
       </c>
       <c r="B18" s="14"/>
     </row>
-    <row r="19" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>10</v>
       </c>
@@ -929,7 +927,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>11</v>
       </c>
@@ -938,7 +936,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>12</v>
       </c>
@@ -947,7 +945,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>13</v>
       </c>
@@ -956,7 +954,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>14</v>
       </c>
@@ -975,7 +973,7 @@
       </c>
       <c r="B25" s="12"/>
     </row>
-    <row r="26" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>16</v>
       </c>
@@ -984,7 +982,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>17</v>
       </c>
@@ -993,7 +991,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>18</v>
       </c>
@@ -1002,7 +1000,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>19</v>
       </c>
@@ -1011,7 +1009,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>20</v>
       </c>
@@ -1020,7 +1018,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>21</v>
       </c>
@@ -1029,7 +1027,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>22</v>
       </c>
@@ -1058,7 +1056,7 @@
       </c>
       <c r="B36" s="12"/>
     </row>
-    <row r="37" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>25</v>
       </c>
@@ -1067,7 +1065,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
         <v>26</v>
       </c>
@@ -1076,7 +1074,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
         <v>27</v>
       </c>
@@ -1085,7 +1083,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
         <v>28</v>
       </c>
@@ -1094,13 +1092,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
         <v>29</v>
       </c>
       <c r="B41" s="20"/>
     </row>
-    <row r="42" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
         <v>30</v>
       </c>
@@ -1109,7 +1107,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
         <v>31</v>
       </c>
@@ -1118,7 +1116,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
         <v>32</v>
       </c>
@@ -1137,7 +1135,7 @@
       </c>
       <c r="B46" s="12"/>
     </row>
-    <row r="47" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
         <v>34</v>
       </c>
@@ -1146,7 +1144,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
         <v>35</v>
       </c>
@@ -1155,7 +1153,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
         <v>36</v>
       </c>
@@ -1164,7 +1162,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
         <v>37</v>
       </c>
@@ -1173,7 +1171,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
         <v>38</v>
       </c>
@@ -1192,7 +1190,7 @@
       </c>
       <c r="B53" s="12"/>
     </row>
-    <row r="54" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
         <v>40</v>
       </c>
@@ -1201,7 +1199,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
         <v>41</v>
       </c>
@@ -1210,7 +1208,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
         <v>42</v>
       </c>
@@ -1219,7 +1217,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
         <v>43</v>
       </c>
@@ -1238,7 +1236,7 @@
       </c>
       <c r="B59" s="12"/>
     </row>
-    <row r="60" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
         <v>45</v>
       </c>
@@ -1247,7 +1245,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
         <v>46</v>
       </c>
@@ -1256,7 +1254,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="s">
         <v>47</v>
       </c>
@@ -1275,7 +1273,7 @@
       </c>
       <c r="B64" s="12"/>
     </row>
-    <row r="65" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="s">
         <v>49</v>
       </c>
@@ -1284,7 +1282,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="s">
         <v>50</v>
       </c>
@@ -1293,7 +1291,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="s">
         <v>51</v>
       </c>
@@ -1302,7 +1300,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="s">
         <v>52</v>
       </c>
@@ -1315,13 +1313,13 @@
       <c r="A69" s="4"/>
       <c r="B69" s="12"/>
     </row>
-    <row r="70" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A70" s="5" t="s">
         <v>53</v>
       </c>
       <c r="B70" s="12"/>
     </row>
-    <row r="71" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A71" s="4" t="s">
         <v>54</v>
       </c>
@@ -1330,7 +1328,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A72" s="4" t="s">
         <v>55</v>
       </c>
@@ -1339,7 +1337,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A73" s="4" t="s">
         <v>56</v>
       </c>
@@ -1348,7 +1346,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A74" s="4" t="s">
         <v>57</v>
       </c>
@@ -1357,7 +1355,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A75" s="4" t="s">
         <v>58</v>
       </c>
@@ -1366,7 +1364,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A76" s="4" t="s">
         <v>59</v>
       </c>
@@ -1375,7 +1373,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A77" s="4" t="s">
         <v>60</v>
       </c>
@@ -1384,7 +1382,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A78" s="4" t="s">
         <v>61</v>
       </c>
@@ -1393,27 +1391,27 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A79" s="4"/>
       <c r="B79" s="12"/>
     </row>
-    <row r="80" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A80" s="5" t="s">
         <v>62</v>
       </c>
       <c r="B80" s="12"/>
     </row>
-    <row r="81" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A81" s="4"/>
       <c r="B81" s="12"/>
     </row>
-    <row r="82" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A82" s="5" t="s">
         <v>63</v>
       </c>
       <c r="B82" s="12"/>
     </row>
-    <row r="83" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A83" s="4" t="s">
         <v>64</v>
       </c>
@@ -1422,7 +1420,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A84" s="4" t="s">
         <v>65</v>
       </c>
@@ -1431,7 +1429,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A85" s="4" t="s">
         <v>66</v>
       </c>
@@ -1440,7 +1438,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A86" s="4" t="s">
         <v>67</v>
       </c>
@@ -1449,17 +1447,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A87" s="4"/>
       <c r="B87" s="12"/>
     </row>
-    <row r="88" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A88" s="5" t="s">
         <v>68</v>
       </c>
       <c r="B88" s="12"/>
     </row>
-    <row r="89" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A89" s="4" t="s">
         <v>69</v>
       </c>
@@ -1468,7 +1466,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A90" s="4" t="s">
         <v>70</v>
       </c>
@@ -1477,7 +1475,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A91" s="4" t="s">
         <v>71</v>
       </c>
@@ -1486,7 +1484,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A92" s="4" t="s">
         <v>72</v>
       </c>
@@ -1495,7 +1493,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A93" s="4" t="s">
         <v>73</v>
       </c>
@@ -1504,7 +1502,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A94" s="4" t="s">
         <v>74</v>
       </c>
@@ -1513,7 +1511,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A95" s="4" t="s">
         <v>75</v>
       </c>
@@ -1522,17 +1520,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A96" s="4"/>
       <c r="B96" s="12"/>
     </row>
-    <row r="97" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A97" s="5" t="s">
         <v>76</v>
       </c>
       <c r="B97" s="12"/>
     </row>
-    <row r="98" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A98" s="4" t="s">
         <v>77</v>
       </c>
@@ -1541,7 +1539,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A99" s="4" t="s">
         <v>78</v>
       </c>
@@ -1550,7 +1548,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A100" s="4" t="s">
         <v>79</v>
       </c>
@@ -1559,17 +1557,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A101" s="5"/>
       <c r="B101" s="12"/>
     </row>
-    <row r="102" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A102" s="5" t="s">
         <v>80</v>
       </c>
       <c r="B102" s="12"/>
     </row>
-    <row r="103" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A103" s="4" t="s">
         <v>81</v>
       </c>
@@ -1578,7 +1576,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A104" s="4" t="s">
         <v>82</v>
       </c>
@@ -1587,7 +1585,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A105" s="4" t="s">
         <v>83</v>
       </c>
@@ -1596,7 +1594,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A106" s="4" t="s">
         <v>84</v>
       </c>
@@ -1605,7 +1603,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A107" s="4" t="s">
         <v>85</v>
       </c>
@@ -1614,17 +1612,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A108" s="4"/>
       <c r="B108" s="12"/>
     </row>
-    <row r="109" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A109" s="5" t="s">
         <v>86</v>
       </c>
       <c r="B109" s="12"/>
     </row>
-    <row r="110" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A110" s="4" t="s">
         <v>87</v>
       </c>
@@ -1633,7 +1631,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A111" s="8" t="s">
         <v>88</v>
       </c>
@@ -1646,7 +1644,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="112" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A112" s="9" t="s">
         <v>89</v>
       </c>
@@ -1674,34 +1672,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1754,22 +1731,38 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6AFAB33E-1031-49BA-A588-1C5301A99807}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BC4B3EB1-E67D-4B64-B435-42996348D439}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1F0A3F64-43C4-4516-B7CB-A76F5930C263}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1F0A3F64-43C4-4516-B7CB-A76F5930C263}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/internal/2005/internalDocumentation"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BC4B3EB1-E67D-4B64-B435-42996348D439}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6AFAB33E-1031-49BA-A588-1C5301A99807}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>